--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,11 +2464,7 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2543,11 +2539,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2617,7 +2609,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2688,7 +2680,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2763,7 +2755,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2815,14 +2807,10 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2858,7 +2846,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2913,7 +2901,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2972,7 +2960,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3027,7 +3015,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3078,12 +3066,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3725,10 +3713,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
@@ -3776,12 +3768,13 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3831,13 +3824,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -3887,7 +3879,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3942,7 +3934,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3997,7 +3989,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4056,7 +4048,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4115,7 +4107,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4398,7 +4390,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4437,7 +4429,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4472,7 +4464,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4507,7 +4499,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2414 10TH AVENUE</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4538,7 +4530,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4579,7 +4571,11 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>If finished up early, check in with Nate and Kim</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
@@ -4618,21 +4614,9 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -4659,15 +4643,19 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4692,16 +4680,8 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4763,7 +4743,11 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -4796,7 +4780,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4831,7 +4815,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4866,7 +4850,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4901,7 +4885,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -4930,11 +4914,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
@@ -4972,13 +4952,21 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>If finished up early, check in with Nate and Kim</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -4994,347 +4982,6 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>3100 S 76TH ST</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -3205,7 +3205,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Pick up Carlie at Slinger Piggly Wiggly on the way @ 5:20 am</t>
+          <t>ENTER THROUGH DOOR BETWEEN MAIN ENTRANCE AND SURGERY  ENTRANCE</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3260,7 +3260,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Pig address is 1100 E Commerce Blvd</t>
+          <t>Pick up Carlie at Slinger Piggly Wiggly on the way @ 5:20 am</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3306,7 +3306,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Pig address is 1100 E Commerce Blvd</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3356,22 +3360,9 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3422,17 +3413,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Slinger Pig</t>
+          <t>Driver,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3479,9 +3471,21 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Slinger Pig</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,24 +536,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +603,64 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -590,12 +670,28 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -606,8 +702,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -617,8 +721,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -643,48 +755,24 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -701,7 +789,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -709,7 +797,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -717,7 +805,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -725,7 +813,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -733,7 +821,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -745,10 +833,14 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +848,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -764,7 +856,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -772,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -780,7 +872,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -795,7 +887,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -803,7 +895,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -811,7 +903,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -819,7 +911,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -827,7 +919,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -842,7 +934,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -850,7 +942,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -858,7 +950,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -866,7 +958,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -874,7 +966,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -889,7 +981,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -897,7 +989,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -905,7 +997,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -913,7 +1005,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -921,7 +1013,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -936,7 +1028,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -944,7 +1036,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -952,7 +1044,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -960,7 +1052,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -968,7 +1060,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -983,7 +1075,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -991,7 +1083,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -999,7 +1091,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1007,7 +1099,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1015,7 +1107,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1030,7 +1122,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1038,7 +1130,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1046,7 +1138,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1054,7 +1146,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1062,7 +1154,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1077,7 +1169,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1085,7 +1177,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1093,7 +1185,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1101,7 +1193,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1109,7 +1201,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1124,7 +1216,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1132,7 +1224,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1140,7 +1232,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1148,13 +1240,17 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
@@ -1167,7 +1263,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1175,7 +1271,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1183,30 +1279,22 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1218,7 +1306,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1226,7 +1314,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1234,40 +1322,28 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1281,7 +1357,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1289,7 +1365,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1297,30 +1373,42 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Sante Fe</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1332,7 +1420,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1340,7 +1428,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1348,14 +1436,26 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Sante Fe</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1371,7 +1471,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1379,13 +1479,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1393,11 +1497,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1408,45 +1508,33 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1458,46 +1546,38 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1505,7 +1585,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1519,36 +1599,44 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1556,7 +1644,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>PICK #472 +RX, FOND DU LAC-PIONEER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1570,25 +1658,24 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1600,7 +1687,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1608,7 +1695,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>55 W PIONEER RD</t>
+          <t>PICK #472 +RX, FOND DU LAC-PIONEER</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1620,26 +1707,39 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1647,7 +1747,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Cccqh1Wg8xs</t>
+          <t>55 W PIONEER RD</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1663,26 +1763,14 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1690,7 +1778,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1698,7 +1786,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/Cccqh1Wg8xs</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1711,29 +1799,29 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>PICK #397 +RX, BROOKFIELD - GREENFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -1741,13 +1829,17 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>SET UP ON REG #6</t>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1760,19 +1852,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1780,30 +1872,22 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>15170 W GREENFIELD AVENUE</t>
+          <t>PICK #397 +RX, BROOKFIELD - GREENFIELD</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #6</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -1815,52 +1899,48 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VfL7fqd5WAB2</t>
+          <t>15170 W GREENFIELD AVENUE</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -1874,7 +1954,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1886,39 +1966,42 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>SET UP ON REG CLOSEST TO CUBICLES</t>
+          <t>https://goo.gl/maps/VfL7fqd5WAB2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -1930,50 +2013,51 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>SET UP ON REG CLOSEST TO CUBICLES</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -1985,7 +2069,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1993,60 +2077,40 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2060,7 +2124,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2068,50 +2132,60 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PICK #877, SOUTH MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
           <t>Driver,
-White Camry,
-Supv Rx</t>
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2125,7 +2199,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2133,50 +2207,52 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2901 S CHICAGO AVENUE</t>
+          <t>PICK #877, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2188,7 +2264,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2196,19 +2272,19 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
+          <t>2901 S CHICAGO AVENUE</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2219,24 +2295,24 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2251,7 +2327,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2259,19 +2335,19 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>SET UP #1 OR 2 (FURTHEST FROM SELF C/O)</t>
+          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2282,24 +2358,24 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2314,23 +2390,27 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SET UP #1 OR 2 (FURTHEST FROM SELF C/O)</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2341,24 +2421,24 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2371,33 +2451,25 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2408,24 +2480,24 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2437,43 +2509,34 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2484,31 +2547,27 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2519,70 +2578,69 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2598,62 +2656,72 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2675,24 +2743,24 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2703,12 +2771,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2719,12 +2787,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2741,49 +2809,68 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2795,26 +2882,39 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2834,49 +2934,33 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2889,19 +2973,19 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #331, SHEBOYGAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2911,11 +2995,7 @@
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -2925,7 +3005,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2933,7 +3013,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2948,19 +3028,19 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2905 NORTH 15TH ST</t>
+          <t>PIGGLY WIGGLY #331, SHEBOYGAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2972,15 +3052,19 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -2988,7 +3072,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3003,19 +3087,19 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kL2YHbXaKw32</t>
+          <t>2905 NORTH 15TH ST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3027,7 +3111,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3035,7 +3119,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3043,7 +3127,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1032 FOND DU LAC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3056,17 +3140,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kL2YHbXaKw32</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3078,7 +3166,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>PICK #185 +RX, MANITOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3086,7 +3174,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3094,7 +3182,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>210 WISCONSIN AMERICAN DR, SUITE 24</t>
+          <t>AURORA OUTPATIENT RX #1032 FOND DU LAC</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3106,31 +3194,18 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3142,7 +3217,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3300 CALUMET AVE</t>
+          <t>PICK #185 +RX, MANITOWOC</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3150,7 +3225,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3158,7 +3233,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7eYhgLDismavDcYj6</t>
+          <t>210 WISCONSIN AMERICAN DR, SUITE 24</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3172,40 +3247,57 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yGAWXUWhj222</t>
+          <t>3300 CALUMET AVE</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>ENTER THROUGH DOOR BETWEEN MAIN ENTRANCE AND SURGERY  ENTRANCE</t>
+          <t>https://maps.app.goo.gl/7eYhgLDismavDcYj6</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3219,15 +3311,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3236,31 +3332,19 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>https://goo.gl/maps/yGAWXUWhj222</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Pick up Carlie at Slinger Piggly Wiggly on the way @ 5:20 am</t>
+          <t>ENTER THROUGH DOOR BETWEEN MAIN ENTRANCE AND SURGERY  ENTRANCE</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3274,41 +3358,48 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Pig address is 1100 E Commerce Blvd</t>
+          <t>Pick up Carlie at Slinger Piggly Wiggly on the way @ 5:20 am</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3322,46 +3413,43 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Pig address is 1100 E Commerce Blvd</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3373,12 +3461,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3386,24 +3474,24 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>PICK #879 +RX, MILWAUKEE - 35TH &amp; NORTH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3411,22 +3499,9 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3437,12 +3512,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3450,22 +3525,26 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2355 N 35TH STREET</t>
+          <t>PICK #879 +RX, MILWAUKEE - 35TH &amp; NORTH</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3473,17 +3552,18 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Slinger Pig</t>
+          <t>Driver,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3496,12 +3576,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3509,36 +3589,42 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6NcR4utzrJq</t>
+          <t>2355 N 35TH STREET</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Slinger Pig</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3547,29 +3633,41 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6NcR4utzrJq</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Rx</t>
+Sante Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3578,11 +3676,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3596,35 +3690,25 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3635,7 +3719,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3648,40 +3732,40 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3690,7 +3774,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3705,35 +3789,35 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3745,7 +3829,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
+          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3760,36 +3844,35 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3801,7 +3884,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
+          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3816,35 +3899,36 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3856,7 +3940,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3871,19 +3955,19 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3894,12 +3978,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3911,7 +3995,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -3926,19 +4010,19 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3949,12 +4033,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3966,7 +4050,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -3981,19 +4065,19 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4004,19 +4088,15 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4025,7 +4105,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4040,19 +4120,19 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4063,12 +4143,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4084,7 +4164,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4099,19 +4179,19 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4122,12 +4202,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4141,7 +4221,11 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4154,19 +4238,19 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>RON'S MARKET, HELENVILLE</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4175,29 +4259,29 @@
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4209,19 +4293,19 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+          <t>W3094 HWY 18</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4240,15 +4324,19 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4258,17 +4346,21 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4278,19 +4370,23 @@
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET GRAFTON PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -4300,31 +4396,30 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM MEET GRAFTON PARK AND RIDE</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4346,15 +4441,20 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4363,7 +4463,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4373,11 +4473,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -4387,22 +4483,26 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4414,7 +4514,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4433,7 +4533,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4441,7 +4541,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2219 GARFIELD STREET</t>
+          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4451,7 +4551,11 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
@@ -4468,7 +4572,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4476,7 +4580,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+          <t>2219 GARFIELD STREET</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4503,13 +4607,17 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -4534,26 +4642,14 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -4577,25 +4673,24 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>If finished up early, check in with Nate and Kim</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
@@ -4619,12 +4714,29 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>If finished up early, check in with Nate and Kim</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -4645,21 +4757,9 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4684,16 +4784,24 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
@@ -4722,7 +4830,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -4747,17 +4855,13 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -4784,7 +4888,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4792,7 +4896,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4819,7 +4923,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4827,7 +4931,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4854,7 +4958,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4862,7 +4966,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -4889,13 +4993,17 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
@@ -4918,24 +5026,16 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -4956,25 +5056,25 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>Katherine</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -4986,6 +5086,45 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -2426,7 +2426,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2628,10 +2628,15 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2704,13 +2709,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2776,7 +2780,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2840,21 +2844,9 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -2955,8 +2947,16 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3057,14 +3057,10 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3119,7 +3115,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3174,7 +3170,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3225,7 +3221,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3287,11 +3283,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3337,9 +3329,21 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
@@ -3380,21 +3384,9 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
@@ -4191,7 +4183,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4250,7 +4242,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4305,7 +4297,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4360,7 +4352,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4400,21 +4392,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -1328,7 +1328,11 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
@@ -1378,21 +1382,13 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL (SALE INV)</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1441,21 +1437,13 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Sante Fe</t>
-        </is>
-      </c>
+          <t>SALEM MINI MART</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1493,7 +1481,11 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1528,7 +1520,11 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1575,11 +1571,7 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1633,13 +1625,21 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1684,13 +1684,22 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Sante Fe,
+Supv Salem</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
@@ -1737,11 +1746,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1776,11 +1781,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>760 W JOHNSON STREET</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -1829,7 +1830,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1880,7 +1881,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>SET UP ON REG #6</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1925,7 +1926,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -1971,21 +1976,13 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2030,22 +2027,13 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>760 W JOHNSON STREET</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2086,14 +2074,10 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2153,23 +2137,13 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Rx</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #6</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2224,16 +2198,8 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
@@ -2295,15 +2261,19 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2358,15 +2328,20 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -2421,12 +2396,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2480,15 +2455,21 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2547,12 +2528,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2623,20 +2604,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2704,19 +2680,15 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2775,19 +2747,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2844,8 +2812,16 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -2908,9 +2884,22 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2949,15 +2938,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3000,15 +2993,19 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
@@ -3058,11 +3055,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3113,11 +3106,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>OPEN PANTRY #493, RACINE</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3167,10 +3156,14 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>6:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3218,10 +3211,14 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3283,7 +3280,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3329,21 +3330,13 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>OPEN PANTRY #493, RACINE</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
@@ -3385,7 +3378,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3433,7 +3430,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3538,9 +3539,21 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -3598,9 +3611,22 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>

--- a/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
+++ b/02-23-25 to 03-01-25 Milwaukee Schedule.xlsx
@@ -1385,7 +1385,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL (SALE INV)</t>
+          <t>APPROXIMATE 10:15-10:30 AM START</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1440,7 +1440,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>SALEM MINI MART</t>
+          <t>CONTACT IS ROOP (THE BUYER)</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>8246 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL (SALE INV)</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+          <t>SALEM MINI MART</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1571,7 +1571,11 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1625,21 +1629,13 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/LVwrNLey8PAE2Cdo7</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1684,22 +1680,9 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Sante Fe,
-Supv Salem</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
@@ -1745,9 +1728,21 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
@@ -1780,9 +1775,22 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Sante Fe,
+Supv Salem</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -1828,11 +1836,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -1879,11 +1883,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -1979,7 +1979,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2030,7 +2030,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2140,7 +2140,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>SET UP ON REG #6</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2199,7 +2199,11 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
@@ -2259,21 +2263,13 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #6</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2326,22 +2322,9 @@
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -2396,15 +2379,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2455,19 +2442,18 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Rx</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2528,12 +2514,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2604,15 +2590,21 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2680,12 +2672,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2747,12 +2739,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2814,12 +2806,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2886,20 +2878,15 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2938,19 +2925,15 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -2993,12 +2976,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3054,9 +3037,22 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
@@ -3105,9 +3101,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
@@ -3158,15 +3166,19 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
@@ -3213,15 +3225,19 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
@@ -3279,12 +3295,12 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3330,12 +3346,12 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>OPEN PANTRY #493, RACINE</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3377,10 +3393,14 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>6:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3429,10 +3449,14 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3489,7 +3513,11 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3539,21 +3567,13 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>OPEN PANTRY #493, RACINE</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -3611,22 +3631,13 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -3690,7 +3701,11 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3785,9 +3800,21 @@
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
@@ -3840,9 +3867,22 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
